--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N2">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O2">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P2">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q2">
-        <v>6.627127887263888</v>
+        <v>1.95355374675</v>
       </c>
       <c r="R2">
-        <v>59.644150985375</v>
+        <v>17.58198372075</v>
       </c>
       <c r="S2">
-        <v>4.74903745521755E-05</v>
+        <v>4.744565990616828E-06</v>
       </c>
       <c r="T2">
-        <v>4.74903745521755E-05</v>
+        <v>4.744565990616829E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.4282</v>
       </c>
       <c r="O3">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P3">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q3">
-        <v>5.289103324777779</v>
+        <v>4.639168756666667</v>
       </c>
       <c r="R3">
-        <v>47.60192992300001</v>
+        <v>41.75251881</v>
       </c>
       <c r="S3">
-        <v>3.79020145999563E-05</v>
+        <v>1.126707793129871E-05</v>
       </c>
       <c r="T3">
-        <v>3.790201459995631E-05</v>
+        <v>1.126707793129871E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N4">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O4">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P4">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q4">
-        <v>284.3974202911161</v>
+        <v>1080.303629447917</v>
       </c>
       <c r="R4">
-        <v>2559.576782620045</v>
+        <v>9722.732665031248</v>
       </c>
       <c r="S4">
-        <v>0.002038008054326804</v>
+        <v>0.002623716838272604</v>
       </c>
       <c r="T4">
-        <v>0.002038008054326805</v>
+        <v>0.002623716838272604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N5">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O5">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P5">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q5">
-        <v>12.00962427658778</v>
+        <v>3.341718281133334</v>
       </c>
       <c r="R5">
-        <v>108.08661848929</v>
+        <v>30.0754645302</v>
       </c>
       <c r="S5">
-        <v>8.606164915304321E-05</v>
+        <v>8.115979881927832E-06</v>
       </c>
       <c r="T5">
-        <v>8.606164915304324E-05</v>
+        <v>8.115979881927834E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N6">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O6">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P6">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q6">
-        <v>868.2130549248491</v>
+        <v>687.8075151783</v>
       </c>
       <c r="R6">
-        <v>7813.917494323642</v>
+        <v>6190.2676366047</v>
       </c>
       <c r="S6">
-        <v>0.006221664025634606</v>
+        <v>0.001670467551780774</v>
       </c>
       <c r="T6">
-        <v>0.006221664025634606</v>
+        <v>0.001670467551780774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N7">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O7">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P7">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q7">
-        <v>9.102891023630553</v>
+        <v>3.059294152045</v>
       </c>
       <c r="R7">
-        <v>81.92601921267499</v>
+        <v>27.533647368405</v>
       </c>
       <c r="S7">
-        <v>6.52318336953556E-05</v>
+        <v>7.430060735842743E-06</v>
       </c>
       <c r="T7">
-        <v>6.523183369535559E-05</v>
+        <v>7.430060735842744E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.4282</v>
       </c>
       <c r="O8">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P8">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q8">
         <v>7.265007103711111</v>
@@ -948,10 +948,10 @@
         <v>65.3850639334</v>
       </c>
       <c r="S8">
-        <v>5.206145321905087E-05</v>
+        <v>1.764441120865077E-05</v>
       </c>
       <c r="T8">
-        <v>5.206145321905087E-05</v>
+        <v>1.764441120865077E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N9">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O9">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P9">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q9">
-        <v>390.6426386137734</v>
+        <v>1691.771512046319</v>
       </c>
       <c r="R9">
-        <v>3515.783747523961</v>
+        <v>15225.94360841687</v>
       </c>
       <c r="S9">
-        <v>0.002799367318604383</v>
+        <v>0.004108779496496018</v>
       </c>
       <c r="T9">
-        <v>0.002799367318604383</v>
+        <v>0.004108779496496019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N10">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O10">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P10">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q10">
-        <v>16.49618098280911</v>
+        <v>5.233180408914222</v>
       </c>
       <c r="R10">
-        <v>148.465628845282</v>
+        <v>47.09862368022801</v>
       </c>
       <c r="S10">
-        <v>0.0001182125691371744</v>
+        <v>1.270974491088528E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001182125691371744</v>
+        <v>1.270974491088528E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N11">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O11">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P11">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q11">
-        <v>1192.560179721724</v>
+        <v>1077.116773683962</v>
       </c>
       <c r="R11">
-        <v>10733.04161749551</v>
+        <v>9694.050963155658</v>
       </c>
       <c r="S11">
-        <v>0.008545953929731251</v>
+        <v>0.002615976970608449</v>
       </c>
       <c r="T11">
-        <v>0.008545953929731251</v>
+        <v>0.002615976970608449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N12">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O12">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P12">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q12">
-        <v>359.015040068575</v>
+        <v>196.8067593611</v>
       </c>
       <c r="R12">
-        <v>3231.135360617175</v>
+        <v>1771.2608342499</v>
       </c>
       <c r="S12">
-        <v>0.002572722152455726</v>
+        <v>0.0004779815547648101</v>
       </c>
       <c r="T12">
-        <v>0.002572722152455726</v>
+        <v>0.0004779815547648101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.4282</v>
       </c>
       <c r="O13">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P13">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q13">
-        <v>286.5295003166001</v>
+        <v>467.3635269302223</v>
       </c>
       <c r="R13">
-        <v>2578.7655028494</v>
+        <v>4206.271742372001</v>
       </c>
       <c r="S13">
-        <v>0.002053286660792213</v>
+        <v>0.001135078622135107</v>
       </c>
       <c r="T13">
-        <v>0.002053286660792213</v>
+        <v>0.001135078622135107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N14">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O14">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P14">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q14">
-        <v>15406.81770113979</v>
+        <v>108832.9700636014</v>
       </c>
       <c r="R14">
-        <v>138661.3593102581</v>
+        <v>979496.7305724124</v>
       </c>
       <c r="S14">
-        <v>0.1104061300356616</v>
+        <v>0.2643209634137917</v>
       </c>
       <c r="T14">
-        <v>0.1104061300356616</v>
+        <v>0.2643209634137918</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N15">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O15">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P15">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q15">
-        <v>650.6039741822181</v>
+        <v>336.6545439058045</v>
       </c>
       <c r="R15">
-        <v>5855.435767639962</v>
+        <v>3029.890895152241</v>
       </c>
       <c r="S15">
-        <v>0.004662265002977622</v>
+        <v>0.0008176277219192919</v>
       </c>
       <c r="T15">
-        <v>0.004662265002977622</v>
+        <v>0.0008176277219192921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N16">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O16">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P16">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q16">
-        <v>47034.1828321945</v>
+        <v>69291.75526992798</v>
       </c>
       <c r="R16">
-        <v>423307.6454897505</v>
+        <v>623625.7974293517</v>
       </c>
       <c r="S16">
-        <v>0.3370496235253165</v>
+        <v>0.1682878221450421</v>
       </c>
       <c r="T16">
-        <v>0.3370496235253164</v>
+        <v>0.1682878221450421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N17">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O17">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P17">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q17">
-        <v>1.153279027419444</v>
+        <v>0.4374945179199999</v>
       </c>
       <c r="R17">
-        <v>10.379511246775</v>
+        <v>3.93745066128</v>
       </c>
       <c r="S17">
-        <v>8.264462962994151E-06</v>
+        <v>1.062536218549287E-06</v>
       </c>
       <c r="T17">
-        <v>8.264462962994151E-06</v>
+        <v>1.062536218549287E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.4282</v>
       </c>
       <c r="O18">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P18">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q18">
-        <v>0.9204306966888889</v>
+        <v>1.038932715377778</v>
       </c>
       <c r="R18">
-        <v>8.283876270199999</v>
+        <v>9.3503944384</v>
       </c>
       <c r="S18">
-        <v>6.595858610044446E-06</v>
+        <v>2.523239934463604E-06</v>
       </c>
       <c r="T18">
-        <v>6.595858610044446E-06</v>
+        <v>2.523239934463604E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N19">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O19">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P19">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q19">
-        <v>49.49196482299256</v>
+        <v>241.9318722911111</v>
       </c>
       <c r="R19">
-        <v>445.427683406933</v>
+        <v>2177.38685062</v>
       </c>
       <c r="S19">
-        <v>0.0003546622287588608</v>
+        <v>0.0005875762237042528</v>
       </c>
       <c r="T19">
-        <v>0.0003546622287588608</v>
+        <v>0.000587576223704253</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N20">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O20">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P20">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q20">
-        <v>2.089962354882889</v>
+        <v>0.7483712341475556</v>
       </c>
       <c r="R20">
-        <v>18.809661193946</v>
+        <v>6.735341107328001</v>
       </c>
       <c r="S20">
-        <v>1.497678884756112E-05</v>
+        <v>1.817557726169294E-06</v>
       </c>
       <c r="T20">
-        <v>1.497678884756112E-05</v>
+        <v>1.817557726169295E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N21">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O21">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P21">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q21">
-        <v>151.0898725073485</v>
+        <v>154.033139746112</v>
       </c>
       <c r="R21">
-        <v>1359.808852566136</v>
+        <v>1386.298257715008</v>
       </c>
       <c r="S21">
-        <v>0.00108271860125169</v>
+        <v>0.0003740979215356375</v>
       </c>
       <c r="T21">
-        <v>0.00108271860125169</v>
+        <v>0.0003740979215356376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N22">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O22">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P22">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q22">
-        <v>410.1328272612695</v>
+        <v>250.13117875429</v>
       </c>
       <c r="R22">
-        <v>3691.195445351424</v>
+        <v>2251.18060878861</v>
       </c>
       <c r="S22">
-        <v>0.002939035116586819</v>
+        <v>0.0006074897534223691</v>
       </c>
       <c r="T22">
-        <v>0.002939035116586818</v>
+        <v>0.0006074897534223692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.4282</v>
       </c>
       <c r="O23">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P23">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q23">
-        <v>327.326548871489</v>
+        <v>593.9947910189778</v>
       </c>
       <c r="R23">
-        <v>2945.9389398434</v>
+        <v>5345.9531191708</v>
       </c>
       <c r="S23">
-        <v>0.002345640626107779</v>
+        <v>0.001442626028979611</v>
       </c>
       <c r="T23">
-        <v>0.002345640626107779</v>
+        <v>0.001442626028979611</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N24">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O24">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P24">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q24">
-        <v>17600.49300904074</v>
+        <v>138321.0575577398</v>
       </c>
       <c r="R24">
-        <v>158404.4370813666</v>
+        <v>1244889.518019659</v>
       </c>
       <c r="S24">
-        <v>0.1261261317906129</v>
+        <v>0.3359382287620213</v>
       </c>
       <c r="T24">
-        <v>0.1261261317906129</v>
+        <v>0.3359382287620213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N25">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O25">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P25">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q25">
-        <v>743.2391893882871</v>
+        <v>427.8704561444596</v>
       </c>
       <c r="R25">
-        <v>6689.152704494582</v>
+        <v>3850.834105300136</v>
       </c>
       <c r="S25">
-        <v>0.005326094212507772</v>
+        <v>0.001039162407479185</v>
       </c>
       <c r="T25">
-        <v>0.005326094212507772</v>
+        <v>0.001039162407479185</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N26">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O26">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P26">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q26">
-        <v>53731.07037300383</v>
+        <v>88066.22536688465</v>
       </c>
       <c r="R26">
-        <v>483579.6333570344</v>
+        <v>792596.0283019618</v>
       </c>
       <c r="S26">
-        <v>0.3850398997138962</v>
+        <v>0.2138850894135083</v>
       </c>
       <c r="T26">
-        <v>0.3850398997138961</v>
+        <v>0.2138850894135083</v>
       </c>
     </row>
   </sheetData>
